--- a/素材整理/素材整理.xlsx
+++ b/素材整理/素材整理.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="驚悚" sheetId="1" r:id="rId1"/>
+    <sheet name="電子" sheetId="2" r:id="rId2"/>
+    <sheet name="心靈" sheetId="3" r:id="rId3"/>
+    <sheet name="歡樂" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
-  <si>
-    <t>恐怖驚悚配樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +149,195 @@
   </si>
   <si>
     <t>https://djgubkafish.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamerjaym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vudujin.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow dreams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninjamuffin99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.心靈成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ninjamuffin99.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Moonlight Ballad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+rat9352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frosted flakes (of skin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rat9352.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Symphony Remixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PsyWoofers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.戰鬥
+2.冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psywoofers.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.輕快
+2.快樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psywoofers.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dancing 4 Joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.敘事
+2.華爾滋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sirdangolot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sirdangolot5.newgrounds.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Waltz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namice.newgrounds.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主選單
+2.順利結局
+3.結局字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BOSS戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azleur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://azleur.newgrounds.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BOSS戰鬥
+2.熱血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bezo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bezo.newgrounds.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newgrounds.com/audio/listen/412937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenoWhirled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belly Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.冒險
+2.敘事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VociferousMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vociferousmusic.newgrounds.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.戰鬥
+2.冒險
+3.主選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pacy Winter Adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.冒險
+2.開頭
+3.主選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warped</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -553,49 +739,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -603,120 +798,106 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="33">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9" display="Halloween-Night-Horror-Mus"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="A8" r:id="rId11"/>
-    <hyperlink ref="D8" r:id="rId12"/>
-    <hyperlink ref="A9" r:id="rId13"/>
-    <hyperlink ref="D9" r:id="rId14"/>
-    <hyperlink ref="A10" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="A11" r:id="rId17"/>
-    <hyperlink ref="D11" r:id="rId18"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9" display="Halloween-Night-Horror-Mus"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
@@ -725,28 +906,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="49.5">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId11"/>
+    <hyperlink ref="D8" r:id="rId12"/>
+    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="A9" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="A10" r:id="rId16"/>
+    <hyperlink ref="D4" r:id="rId17"/>
+    <hyperlink ref="A4" r:id="rId18"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>